--- a/experiments/programs/SeeDB_python/DiViz_airbnb/neighbourhood='Staten_Island'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/neighbourhood='Staten_Island'.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
   <si>
     <t>Attributes</t>
   </si>
@@ -425,16 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -455,13 +452,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.96002005881686203</v>
+        <v>0.78431034642846653</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,13 +466,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>0.78425388923497241</v>
+        <v>0.70970053391506394</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,27 +480,27 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>0.71006323415016981</v>
+        <v>0.643122570016608</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.63341454548702136</v>
+        <v>0.63298052157375517</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,49 +514,49 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.61773677871605548</v>
+        <v>0.61782642262966037</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0.46079652365227619</v>
+        <v>0.53605271217625983</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>0.45347765108681559</v>
+        <v>0.50089181041350084</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>0.37399177004446871</v>
+        <v>0.49859673891477319</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,94 +567,94 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>0.37268828793636682</v>
+        <v>0.45869395897345389</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>0.36823815361030338</v>
+        <v>0.45202178881851229</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>0.35287934141810201</v>
+        <v>0.37989148788184163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>0.33274609772311331</v>
+        <v>0.3785129005789607</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>0.31968204189891303</v>
+        <v>0.37163389191361251</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>0.29062149156787909</v>
+        <v>0.37118607110242507</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>0.17686351938307349</v>
+        <v>0.37078707340725542</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,24 +665,24 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>0.16567580599179721</v>
+        <v>0.36823815361030338</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>3.2774628114112678E-2</v>
+        <v>0.35402518884714651</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,41 +690,41 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>2.6844528696340679E-2</v>
+        <v>0.35284052801055138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>0.63298231136458127</v>
+        <v>0.33274609772311331</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>0.53605423520531637</v>
+        <v>0.31963329764213949</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,32 +732,32 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>0.50089181041350084</v>
+        <v>0.30486563603373817</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>0.49859912059708178</v>
+        <v>0.29062149156787909</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -769,69 +766,52 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <v>0.37988953363558808</v>
+        <v>0.17690706673230089</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>0.3785129005789607</v>
+        <v>0.1656988070359518</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0.37078707340725542</v>
+        <v>3.2711168813403142E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>0.35402473892760139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>0.30486155657240782</v>
+        <v>2.6904067135758991E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E37">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>